--- a/data/negative_signals/Indirectly connected (A-X-B) - Desloratadine - Aplastic anaemia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Desloratadine - Aplastic anaemia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
   <si>
     <t>pathWeight</t>
   </si>
@@ -191,88 +191,106 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>69559568</t>
+    <t>3128396</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>131748874</t>
+    <t>65277484</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>78676722</t>
+    <t>2786881</t>
+  </si>
+  <si>
+    <t>il5 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>19307437</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>181260055</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>118980329</t>
-  </si>
-  <si>
-    <t>129696595</t>
+    <t>28486709</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>2792087</t>
+  </si>
+  <si>
+    <t>cxcl8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18554772</t>
+  </si>
+  <si>
+    <t>28474722</t>
+  </si>
+  <si>
+    <t>837008</t>
+  </si>
+  <si>
+    <t>p-glycoprotein</t>
+  </si>
+  <si>
+    <t>1567183</t>
+  </si>
+  <si>
+    <t>108607697</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39421678</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>39421679</t>
+  </si>
+  <si>
+    <t>is derivative of</t>
+  </si>
+  <si>
+    <t>61086449</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>2786881</t>
-  </si>
-  <si>
-    <t>il5 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>85281216</t>
-  </si>
-  <si>
-    <t>94844637</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>2792087</t>
-  </si>
-  <si>
-    <t>cxcl8 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84618600</t>
-  </si>
-  <si>
-    <t>94837487</t>
-  </si>
-  <si>
-    <t>837008</t>
-  </si>
-  <si>
-    <t>p-glycoprotein</t>
-  </si>
-  <si>
-    <t>67995519</t>
-  </si>
-  <si>
-    <t>174786175</t>
-  </si>
-  <si>
-    <t>is associated with</t>
+    <t>52228785</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>61902182</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>51998630</t>
+  </si>
+  <si>
+    <t>treats</t>
   </si>
   <si>
     <t>5793255</t>
@@ -281,82 +299,43 @@
     <t>ataxia</t>
   </si>
   <si>
-    <t>80947639</t>
+    <t>14725706</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
-    <t>149292634</t>
+    <t>84231966</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>74119612</t>
+  </si>
+  <si>
+    <t>82917466</t>
   </si>
   <si>
     <t>diagnoses</t>
   </si>
   <si>
-    <t>106297204</t>
+    <t>40115931</t>
   </si>
   <si>
     <t>is manifestation of</t>
   </si>
   <si>
-    <t>140606132</t>
-  </si>
-  <si>
-    <t>148733085</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
     <t>4034179</t>
   </si>
   <si>
     <t>fatigue</t>
   </si>
   <si>
-    <t>80947675</t>
-  </si>
-  <si>
-    <t>170485707</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>105773530</t>
-  </si>
-  <si>
-    <t>is derivative of</t>
-  </si>
-  <si>
-    <t>105773529</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>128288985</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>124087779</t>
-  </si>
-  <si>
-    <t>118474569</t>
-  </si>
-  <si>
-    <t>118277386</t>
-  </si>
-  <si>
-    <t>treats</t>
+    <t>14725724</t>
+  </si>
+  <si>
+    <t>104379851</t>
   </si>
   <si>
     <t>836328</t>
@@ -368,34 +347,34 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>105773535</t>
+    <t>39421684</t>
   </si>
   <si>
     <t>is part of</t>
   </si>
   <si>
-    <t>135175594</t>
-  </si>
-  <si>
-    <t>131859584</t>
+    <t>65514560</t>
   </si>
   <si>
     <t>is location of</t>
   </si>
   <si>
+    <t>68809084</t>
+  </si>
+  <si>
     <t>4047989</t>
   </si>
   <si>
     <t>liver</t>
   </si>
   <si>
-    <t>105773544</t>
-  </si>
-  <si>
-    <t>161631421</t>
-  </si>
-  <si>
-    <t>142321151</t>
+    <t>39421693</t>
+  </si>
+  <si>
+    <t>75885139</t>
+  </si>
+  <si>
+    <t>95399308</t>
   </si>
   <si>
     <t>5127800</t>
@@ -407,13 +386,13 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>154928627</t>
+    <t>88790973</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>120032565</t>
+    <t>53704865</t>
   </si>
   <si>
     <t>2449184</t>
@@ -422,10 +401,10 @@
     <t>tissue membrane</t>
   </si>
   <si>
-    <t>105773534</t>
-  </si>
-  <si>
-    <t>122463318</t>
+    <t>39421683</t>
+  </si>
+  <si>
+    <t>56076073</t>
   </si>
   <si>
     <t>4027143</t>
@@ -434,43 +413,43 @@
     <t>obstruction</t>
   </si>
   <si>
-    <t>146808874</t>
-  </si>
-  <si>
-    <t>138283202</t>
+    <t>80431941</t>
+  </si>
+  <si>
+    <t>76361045</t>
+  </si>
+  <si>
+    <t>74388799</t>
   </si>
   <si>
     <t>coexists with</t>
   </si>
   <si>
-    <t>142798942</t>
-  </si>
-  <si>
     <t>2940375</t>
   </si>
   <si>
     <t>symptoms</t>
   </si>
   <si>
-    <t>146809001</t>
+    <t>80432088</t>
   </si>
   <si>
     <t>disrupts</t>
   </si>
   <si>
-    <t>198275682</t>
-  </si>
-  <si>
-    <t>198276679</t>
-  </si>
-  <si>
-    <t>197375579</t>
+    <t>60801202</t>
+  </si>
+  <si>
+    <t>132067148</t>
+  </si>
+  <si>
+    <t>132068143</t>
+  </si>
+  <si>
+    <t>131172637</t>
   </si>
   <si>
     <t>does not cause</t>
-  </si>
-  <si>
-    <t>123777315</t>
   </si>
 </sst>
 </file>
@@ -719,7 +698,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -737,7 +716,7 @@
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -749,33 +728,21 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
         <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>46.0</v>
+        <v>41.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -787,13 +754,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -805,21 +772,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -831,13 +798,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -849,21 +816,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -875,10 +842,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -893,16 +860,40 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>86</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -919,10 +910,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>58</v>
@@ -937,34 +928,34 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -981,10 +972,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>58</v>
@@ -999,21 +990,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1025,13 +1016,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1043,45 +1034,27 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1093,13 +1066,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1114,24 +1087,24 @@
         <v>118</v>
       </c>
       <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="s">
         <v>119</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
         <v>120</v>
       </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" t="s">
-        <v>121</v>
-      </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1143,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
         <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" t="s">
-        <v>117</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1161,22 +1134,16 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
         <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>119</v>
       </c>
       <c r="M11" t="s">
         <v>126</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1193,13 +1160,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
       </c>
-      <c r="F12" t="s">
-        <v>129</v>
-      </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1211,13 +1178,13 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s">
         <v>114</v>
@@ -1225,7 +1192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1237,13 +1204,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1255,16 +1222,22 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" t="s">
         <v>136</v>
-      </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1281,10 +1254,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
         <v>138</v>
-      </c>
-      <c r="F14" t="s">
-        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1299,84 +1272,34 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
         <v>140</v>
-      </c>
-      <c r="L14" t="s">
-        <v>114</v>
       </c>
       <c r="M14" t="s">
         <v>141</v>
       </c>
       <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
         <v>142</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" t="s">
         <v>143</v>
       </c>
-      <c r="P14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="R14" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" t="s">
         <v>144</v>
       </c>
-      <c r="F15" t="s">
+      <c r="T14" t="s">
         <v>145</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>150</v>
-      </c>
-      <c r="R15" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" t="s">
-        <v>152</v>
-      </c>
-      <c r="T15" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
